--- a/whowherewhen/whowhenwhere_test_result_olahraga.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_olahraga.xlsx
@@ -553,7 +553,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aston Villa, Tyrone Mings, Emiliano Buendia, Douglas Luiz, Tottenham, Ollie Watkins, Ivan Perisic, Hojbjerg, Boubacar Kamara, Yves Bissouma, Ezri Konsa, Villa, Ashley Young, Young, Villa Robin Olsen, Cristian Romero, Matt Doherty</t>
+          <t>Douglas Luiz, Tyrone Mings, Villa Robin Olsen, Villa, Tottenham, Emiliano Buendia, Young, Cristian Romero, Yves Bissouma, Aston Villa, Hojbjerg, Ivan Perisic, Ezri Konsa, Ollie Watkins, Boubacar Kamara, Matt Doherty, Ashley Young</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -674,7 +674,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Iptu Umbaran, Wakhid, Wibowo, Dilansir, Wakil Bupati, Abdul Wakhid, Kartika Hidayati</t>
+          <t>Iptu Umbaran, Wakil Bupati, Dilansir, Wakhid, Kartika Hidayati, Abdul Wakhid, Wibowo</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -787,7 +787,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kenzo, Taisei Marukawa, PSIS, Gelandang Juku Eja, Assegaf Razak, PSM, PSM Bernardo Tavares, Marukawa, Assegaf, Laskar Mahesa</t>
+          <t>PSM, PSIS, PSM Bernardo Tavares, Laskar Mahesa, Assegaf Razak, Marukawa, Gelandang Juku Eja, Kenzo, Assegaf, Taisei Marukawa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -920,7 +920,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Walid Regragui, Ziyech Cs, Timnas Maroko, Sport Bible, Real Dronten, UEFA Europa League, Heerenveen Vs Rapid Bucuresti, Singa Atlas, Regragui, UEFA Champions League, Ziyech, Pemain, Profil Hakim Ziyech Hakim Ziyech, Spanyol, Maroko, Belanda, Al Khor, Qatar, Halilhodzic, Maroko Vs Belgia, Grup F, SC Heerenveen, NEC, FC Twente, U21, Hakim Ziyech, Vahid Halilhodzic, Kroasia</t>
+          <t>Hakim Ziyech, Heerenveen Vs Rapid Bucuresti, Pemain, Spanyol, SC Heerenveen, FC Twente, Real Dronten, Profil Hakim Ziyech Hakim Ziyech, Vahid Halilhodzic, Regragui, Maroko Vs Belgia, Al Khor, U21, Halilhodzic, Maroko, Timnas Maroko, Ziyech Cs, Sport Bible, Walid Regragui, Singa Atlas, Grup F, UEFA Champions League, Kroasia, NEC, UEFA Europa League, Ziyech, Qatar, Belanda</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1112,7 +1112,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liga Inggris, Ben Mee, Mbeumo, Ibrahima Konate, Alisson, Bryan Mbeumo, Yoane Wissa, Serangan Liverpool, Laga Brentford, Brentford, Thiago, Christian Norgaard, WIB, Mohamed Salah, Ethan Pinnock, Alisson Becker, Nunez, Darwin Nunez, David, Chamberlain, Arnold, Fabinho, Wissa, VAR, Liverpool</t>
+          <t>Yoane Wissa, Darwin Nunez, Nunez, WIB, Alisson Becker, Ben Mee, Wissa, Brentford, Serangan Liverpool, Bryan Mbeumo, David, Ibrahima Konate, Christian Norgaard, Alisson, VAR, Arnold, Fabinho, Liverpool, Ethan Pinnock, Mohamed Salah, Laga Brentford, Chamberlain, Mbeumo, Thiago, Liga Inggris</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1267,7 +1267,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PSS, PSIS, Assegaf Razak, PSM, Bernardo Tavares, Assegaf, Borneo FC, Madura United, Ramang, Laskar Mahesa</t>
+          <t>PSM, Ramang, PSIS, Bernardo Tavares, Laskar Mahesa, Assegaf Razak, Borneo FC, PSS, Assegaf, Madura United</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1402,7 +1402,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ibrahim Tompo, Bobotoh Desak Laga Persib Vs Persija, Bupati, Kapolsek Bojongloa Kidul Kompol Air Purwantono, Emirates Red Crescent, Kabid Humas Polda, El Classico, Trisakti Sadarehe, Herman Suherman, Acsena Humanis Respon Foundation, Polda, Gusdul, Pemotor Nyaris, Anyu Hermawan, Mabes Polri, Agus Rachmat, Gunung Cireami Tetap, Ibrahim, Andika, BKR, Stadion GBLA, Polrestabes, Pengunggah, Edy, Nisa, Daniel, Kombes, Kasi Trantib, Pamobvit, Kompol Edy Kusmawan, Apuy, Korban, Palabuhanratu, Palutungan, Acsena Bakal, KPK, Teddy Tjahjono, Founder Acsena Humanis Respon Andika Karisma, Anyu, CCTV, Bojongloa Kidul, Persija, Herman, Acsena Humanis Respon, Linggajati, Persib, Acsena, Ari, Pelapor, Kapolsek, Bobotoh Club, Gunung Ciremai</t>
+          <t>Palabuhanratu, Stadion GBLA, Edy, Persija, Acsena Bakal, BKR, Pemotor Nyaris, Linggajati, Ari, Trisakti Sadarehe, Persib, Polda, Kasi Trantib, Gunung Ciremai, Anyu Hermawan, Herman, Acsena, Emirates Red Crescent, Nisa, Pengunggah, Kombes, Founder Acsena Humanis Respon Andika Karisma, Palutungan, Anyu, Kapolsek Bojongloa Kidul Kompol Air Purwantono, El Classico, Andika, Bupati, CCTV, Pamobvit, Bobotoh Club, Ibrahim Tompo, Polrestabes, Ibrahim, Pelapor, Mabes Polri, Daniel, Acsena Humanis Respon Foundation, Herman Suherman, Gusdul, Kapolsek, Kompol Edy Kusmawan, Korban, Gunung Cireami Tetap, Kabid Humas Polda, KPK, Acsena Humanis Respon, Apuy, Bobotoh Desak Laga Persib Vs Persija, Teddy Tjahjono, Agus Rachmat, Bojongloa Kidul</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1684,7 +1684,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PSIS, Pemain Juku Eja, PSM, Madura United, Tony, Tony Ho</t>
+          <t>PSIS, PSM, Tony Ho, Tony, Pemain Juku Eja, Madura United</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1803,7 +1803,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pesut Etam, Juku Eja, Assegaf Razak, PSM, Ahasil, Tavares, Borneo FC Matheus Pato, Bernardo Tavares, United, Borneo FC, Ramang, Agung Mannan, Tim Ramang</t>
+          <t>PSM, Pesut Etam, Ramang, Juku Eja, Tim Ramang, Bernardo Tavares, Agung Mannan, Assegaf Razak, Borneo FC, Ahasil, Borneo FC Matheus Pato, United, Tavares</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1930,7 +1930,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dries Mertens, Abdelhamid Sabiri, Sofyan Amrabat, Noussair Mazraoui, Romain Saiss, Roman Saiss, Thorgan Hazard, Munir Mohamedi, Ziyech, Nayef Aguerd, Maroko, Timothy Castagne, WIB, Doha, Sabiri, Axel Witsel, Zakaria Aboukhlal, The Atlas Lions, Michy Batshuayi, Kevin De Bruyne, Inter Milan, Grup F, Belgia, Toby Alderweireld, Hakim Ziyech, Jan Vertonghen, VAR, Hazard, Courtois</t>
+          <t>Hakim Ziyech, Michy Batshuayi, Jan Vertonghen, Dries Mertens, Sofyan Amrabat, WIB, Abdelhamid Sabiri, VAR, Zakaria Aboukhlal, Timothy Castagne, Munir Mohamedi, Inter Milan, The Atlas Lions, Roman Saiss, Kevin De Bruyne, Belgia, Doha, Maroko, Noussair Mazraoui, Nayef Aguerd, Courtois, Axel Witsel, Romain Saiss, Grup F, Sabiri, Ziyech, Toby Alderweireld, Hazard, Thorgan Hazard</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2077,7 +2077,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pesut Etam, Tim Juku Eja, Bek Borneo, Javlon Guseynov, Giliran PSM, M Arfan, Borneo FC Vs PSM, Rizky, Jonathan Bustos, Safruddin Tahar, Borneo, Muhammad Sihran, Borneo FC Lilipaly, Taufany, United, Borneo FC Angga Saputro, Insiden, PSM Yuran Fernandez, Reza Arya Pratama, Mufli Hidayat, Beruntung, Matheus Pato, Ricky Pratama, Rizky Eka Pratama, Bek PSM, Andre Gaspar, Dzaky, Wiljam Pluim, Rasyid Bakri, Andy Harjito, Skuad Juku Eja, PSM, Pasukan Ramang, Kapten Wiljan Pluim, Agung Prasetyo, Bernardo Tavares, Ananda Raehan, PSM Reza Arya, Borneo Angga Saputra, Tim Pesut Etam, Yuran Fernandes, Borneo FC, Madura United, Skor, Hendro Siswanto</t>
+          <t>Borneo FC Lilipaly, Borneo, Safruddin Tahar, United, Taufany, Andre Gaspar, Rizky Eka Pratama, Pasukan Ramang, Dzaky, Kapten Wiljan Pluim, Rasyid Bakri, Andy Harjito, Tim Juku Eja, Javlon Guseynov, Bek Borneo, Jonathan Bustos, Tim Pesut Etam, Hendro Siswanto, Insiden, Skor, Borneo Angga Saputra, Borneo FC Vs PSM, Bernardo Tavares, M Arfan, Agung Prasetyo, Beruntung, Yuran Fernandes, Ricky Pratama, Skuad Juku Eja, Wiljam Pluim, Muhammad Sihran, Madura United, PSM, Pesut Etam, Reza Arya Pratama, Rizky, Mufli Hidayat, PSM Yuran Fernandez, Ananda Raehan, Bek PSM, Matheus Pato, PSM Reza Arya, Borneo FC, Giliran PSM, Borneo FC Angga Saputro</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2259,7 +2259,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gol, Persis, Leo Lelis, Higor Vidal, Ferdinand Sinaga, Jaime, Ryo Matsumoto, Peluang Silvio, Persis Solo, Ernando Ari, WIB, Gianluca Pandeynuwu, Fernando Rodriguez, Duel, Irfan Jauhari, Messidoro, Silvio, Laga, Fabiano Da Rosa, Riswan Lauhim, Alexis Messidoro, Persebaya, Shulton Fajar, Fernandes Rodriguez</t>
+          <t>Gol, Jaime, Gianluca Pandeynuwu, Shulton Fajar, WIB, Ryo Matsumoto, Irfan Jauhari, Silvio, Fernandes Rodriguez, Ferdinand Sinaga, Higor Vidal, Fernando Rodriguez, Duel, Persebaya, Fabiano Da Rosa, Messidoro, Riswan Lauhim, Laga, Leo Lelis, Peluang Silvio, Persis Solo, Persis, Alexis Messidoro, Ernando Ari</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2389,7 +2389,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Abdelhamid Sabiri, Sofyan Amrabat, Ibnu Battuta, Tangier, Badr Benoun, Noussair Mazraoui, Ibnu Batuttah, Inggris, Kunjungi Maroko Presiden RI Ir Soekarno, Selim Amallah, Tim, Majelis Rendah, Presiden Soekarno, Singa Atlas, Youssef, Marrakesh, Afrika, Sistem Pemerintahan Maroko Maroko, Tetouin, Asia, Islam, C, Atlas, UNESCO, Maroko, Nabi Muhammad SAW, Bono, Achraf Hakimi, Nayef Aguerd, Perjalanan Ibnu Batutta, Romawi, Piala Dunia Timnas Maroko, Prancis, Mekkah, Amine Harit, Majelis Tinggi, Zakaria Aboukhlal, Tuhan, Qatar, Prancis Bahasa Prancis, Mauritania, Indonesia, Asal Cendekiawan Muslim Ibnu Battuta, Daya Alam Maroko Maroko, Jawad El Yamiq, Walid Cheddira, Bahasa Arab, China, Piala Dunia, Fosfat, Rabat, Yahia Attiyat Allah, Rif, Sofiane Boufal, House, Meksiko, Soekarno, Arab, Ilias Chair, Abde Ezzalzouli, Mediterania, Monarki Konstitusional Parlementer, Eropa, Kroasia, Bilal El Khannous, Cendekiawan</t>
+          <t>Mekkah, Yahia Attiyat Allah, Daya Alam Maroko Maroko, Bahasa Arab, Indonesia, Qatar, Asal Cendekiawan Muslim Ibnu Battuta, Sofyan Amrabat, Romawi, Achraf Hakimi, Rif, Jawad El Yamiq, Badr Benoun, Meksiko, China, Fosfat, Sofiane Boufal, Atlas, House, Afrika, Rabat, Eropa, Bilal El Khannous, Tim, Abdelhamid Sabiri, Arab, Amine Harit, Walid Cheddira, Ibnu Batuttah, Mediterania, Zakaria Aboukhlal, Piala Dunia Timnas Maroko, Islam, Perjalanan Ibnu Batutta, Inggris, Soekarno, Prancis Bahasa Prancis, Maroko, Noussair Mazraoui, Sistem Pemerintahan Maroko Maroko, Majelis Rendah, Piala Dunia, Nayef Aguerd, Youssef, Majelis Tinggi, Mauritania, Prancis, Kunjungi Maroko Presiden RI Ir Soekarno, Ibnu Battuta, Tuhan, Presiden Soekarno, Tangier, Tetouin, Singa Atlas, Cendekiawan, Marrakesh, Selim Amallah, Ilias Chair, C, Monarki Konstitusional Parlementer, Bono, UNESCO, Kroasia, Asia, Abde Ezzalzouli, Nabi Muhammad SAW</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2638,7 +2638,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Umpan, Portugal, Adrien Rabiot, Hugo Lloris, Theo Hernandez, Inggris, Tendangan Luke Shaw, Bukayo Saka, Ousmane Dembele, Lloris, Tchouameni, Marcus Rashford, Jordan Henderson, Theo Herandnez, Antoine Griezmann, Aurelien Tchouameni, Harry Kane, Kane, WIB, Prancis, Al Khor, Giroud, Jules Kounde, Harry Maguire, Rabiot, Mason Mount, Dayot Upamecano, Jordan Pickford, Raphael Varane, Dembele, Pickford, VAR, Declan Rice, Luke Shaw, Borussia Dortmund</t>
+          <t>Dayot Upamecano, Portugal, Giroud, Dembele, Mason Mount, WIB, Theo Hernandez, Pickford, Antoine Griezmann, Al Khor, Lloris, Jordan Henderson, VAR, Tendangan Luke Shaw, Umpan, Rabiot, Inggris, Adrien Rabiot, Aurelien Tchouameni, Luke Shaw, Ousmane Dembele, Raphael Varane, Declan Rice, Marcus Rashford, Prancis, Kane, Tchouameni, Jordan Pickford, Borussia Dortmund, Jules Kounde, Harry Maguire, Harry Kane, Hugo Lloris, Bukayo Saka, Theo Herandnez</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2798,7 +2798,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nindya, Melbourne University, Public Relations Le Minerale Yuna Eka Kristina, Indonesia, Nindyasari Laksmita Putri, BMedSci, Dokter Nindya, Pesta, Yuna, Le Minerale, Head</t>
+          <t>Yuna, Public Relations Le Minerale Yuna Eka Kristina, Le Minerale, Head, Indonesia, BMedSci, Nindyasari Laksmita Putri, Pesta, Nindya, Melbourne University, Dokter Nindya</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2945,7 +2945,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Penyerang, Manchester United, Selamat, Cristiano Ronaldo, Ronaldo, Eropa, Juventus, Real Madrid, Al Nassr</t>
+          <t>Al Nassr, Real Madrid, Eropa, Ronaldo, Juventus, Penyerang, Manchester United, Selamat, Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3068,7 +3068,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portugal, Ghana, Laga Korea, Ronaldo, Kwon, Joao Cancelo, Kim, WIB, Pepe, Cancelo, Vitinha, La Celeste, Korea, Diogo Costa, Dalot, Al Janoub Stadium, Diogo Dalot, Ricardo Horta, Son, Hwang, Korsel, Antonio Silva, Horta, Uruguay, Tendangan Son</t>
+          <t>Ricardo Horta, Diogo Costa, Kim, Portugal, La Celeste, WIB, Hwang, Korsel, Pepe, Cancelo, Ronaldo, Dalot, Kwon, Tendangan Son, Vitinha, Joao Cancelo, Uruguay, Horta, Ghana, Korea, Diogo Dalot, Al Janoub Stadium, Antonio Silva, Son, Laga Korea</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3216,7 +3216,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alhasil, Manuel Neuer Cs, Pelatih Jerman, Jerman, Spanyol, Piala Dunia, Kosta Rika, Hansi Flick</t>
+          <t>Pelatih Jerman, Spanyol, Piala Dunia, Jerman, Kosta Rika, Manuel Neuer Cs, Alhasil, Hansi Flick</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3349,7 +3349,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Enzo, La Albiceleste, Adrien Rabiot, Inggris, Otamendi, Messi, Ibrahima Konate, Fernandez, Nilton Santos, Lionel Scaloni, Italia, Maroko, Polandia, Varane, Acuna, Prancis, Griezmann, Qatar, Kingsley Coman, Giroud, Upamecano, Nicolas Tagliafico, Piala Dunia, Pelatih Didier Deschamps, Alvarez, Raphael Varane, Lionel Messi, Romero, Dino Zoff, Argentina, Miroslav Klose, Lusail, Montiel, La Pulga</t>
+          <t>Nilton Santos, Nicolas Tagliafico, Montiel, Giroud, Italia, Alvarez, Romero, Varane, Enzo, Upamecano, Griezmann, Dino Zoff, Polandia, Miroslav Klose, Fernandez, Kingsley Coman, Inggris, Adrien Rabiot, Maroko, Raphael Varane, Otamendi, Piala Dunia, Acuna, Messi, Lionel Messi, Prancis, La Pulga, Pelatih Didier Deschamps, Lusail, Lionel Scaloni, Ibrahima Konate, Qatar, Argentina, La Albiceleste</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3504,7 +3504,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Juku Eja, PSM, Willy, Bernardo Tavares, Thoriq Alkatiri, United, Bhayangkara FC, Bernardo, Bhayangkara, Tony Ho, Pelatih PSM</t>
+          <t>Juku Eja, PSM, Bernardo Tavares, Bernardo, Thoriq Alkatiri, Bhayangkara, Bhayangkara FC, Tony Ho, Pelatih PSM, United, Willy</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3628,7 +3628,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Juku Eja, PT LIB, Indonesia, PSM, Stadion Jatidiri, Tragedi Kanjuruhan, Pertimbangan Dirut LIB, COVID, Syamsuddin Umar, Direktur Utama PT LIB Ferry Paulus, Legenda PSM, Liga Indonesia, LIB, Syam, Sultan Agung</t>
+          <t>PSM, Juku Eja, Direktur Utama PT LIB Ferry Paulus, Sultan Agung, Indonesia, Legenda PSM, Liga Indonesia, Syamsuddin Umar, COVID, PT LIB, Stadion Jatidiri, Syam, Pertimbangan Dirut LIB, LIB, Tragedi Kanjuruhan</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3763,7 +3763,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pelatih, PSIS, Pemain, Juku Eja Bernardo Tavares, PSM, Akbar, UEFA Pro, Indonesia, Bernardo Tavares, Bernardo, Borneo FC</t>
+          <t>PSM, PSIS, Bernardo Tavares, Juku Eja Bernardo Tavares, Bernardo, Pelatih, Pemain, Indonesia, Akbar, Borneo FC, UEFA Pro</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3899,7 +3899,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Persija, Indonesia, Pesta, Le Minerale, BP</t>
+          <t>Le Minerale, Persija, Indonesia, Pesta, BP</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -4033,7 +4033,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Persikabo, Soebroto, Stadion Jatidiri, Bhayangkara FC Vs PSS, MCM, AFC Pro, Tragedi Kanjuruhan, United, Stadion Maguwoharjo, Stadion Sultan Agung, Stadion Manahan, Porprov, Stadion, Madura United Vs PSIS, Vs, Media Officer PSM, Sulaiman Abdul Karim, Persita, PSM, Bernardo Tavares, Tony Ho</t>
+          <t>Bhayangkara FC Vs PSS, Vs, Stadion Jatidiri, United, Stadion Sultan Agung, Stadion Manahan, Persita, Stadion Maguwoharjo, Stadion, AFC Pro, Media Officer PSM, Tony Ho, Bernardo Tavares, Persikabo, Madura United Vs PSIS, Soebroto, Porprov, Tragedi Kanjuruhan, PSM, MCM, Sulaiman Abdul Karim</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4169,7 +4169,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kerrab, Vs Madura United, Juku Eja, Assegaf Razak, Lulinha, PSM, Madura, Yuran, Laskar, Yuran Fernandes, Bernardo, Assegaf, Madura United, Reza Arya Pratama</t>
+          <t>Juku Eja, Lulinha, PSM, Bernardo, Yuran, Laskar, Reza Arya Pratama, Assegaf Razak, Yuran Fernandes, Kerrab, Assegaf, Madura, Vs Madura United, Madura United</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4301,7 +4301,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pesut Etam, Pelatih, PSM, Akbar, PSM Bernardo Tavares, UEFA Pro, Bernardo Tavares, Andre Gaspar, Bernardo, Borneo FC</t>
+          <t>PSM, Pesut Etam, PSM Bernardo Tavares, Bernardo Tavares, Bernardo, Pelatih, Akbar, Borneo FC, UEFA Pro, Andre Gaspar</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4433,7 +4433,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nanti, Siti Fadia Silva Ramadhanti, Fadia, Indonesia, Asian Games, Indonesia Masters, Amin, Apriyani, Malaysia Open, All England</t>
+          <t>Siti Fadia Silva Ramadhanti, Indonesia, Fadia, Asian Games, Indonesia Masters, All England, Amin, Malaysia Open, Nanti, Apriyani</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>05/01/2023</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -4558,7 +4558,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kebuntuan, Penalti, LaLiga, Alaba, Juan Foyth, Gerard Moreno, Vinicius Junior, Alberto Moreno, Karim Benzema, Jelang, Alex Baena, Chukwueze, Dani Parejo, Foyth, WIB, Real Madrid, Thibaut Courtois, Villareal, Danjuma, Ruediger, Militao, Villarreal, Parejo, Rodrygo, Benzema, Moreno, Crossing Valverde, Pau Torres, Yeremy, Kroos, Usai, Wasit, Madrid, Federico Valverde, Juara, Raul Albiol, Courtois, Eder Militao</t>
+          <t>Eder Militao, Vinicius Junior, Militao, Wasit, Villarreal, Alaba, Raul Albiol, Crossing Valverde, Benzema, LaLiga, Juan Foyth, WIB, Rodrygo, Kebuntuan, Madrid, Alberto Moreno, Usai, Kroos, Gerard Moreno, Yeremy, Penalti, Danjuma, Thibaut Courtois, Moreno, Villareal, Juara, Real Madrid, Ruediger, Federico Valverde, Alex Baena, Foyth, Dani Parejo, Pau Torres, Courtois, Karim Benzema, Parejo, Chukwueze, Jelang</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4726,7 +4726,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sampurasun, Activation Manager Persib Rijki Kurniawan, Sauyunan, Rijki, Campus, Persib, Community, Persib Goes, Yuk</t>
+          <t>Campus, Yuk, Persib Goes, Activation Manager Persib Rijki Kurniawan, Sampurasun, Persib, Sauyunan, Rijki, Community</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4831,7 +4831,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PSSI, Indonesia, PSM, PT LIB, Bernardo Tavares, Stadion Sultan Agung, Pelatih PSM</t>
+          <t>PSM, PSSI, Bernardo Tavares, Indonesia, PT LIB, Pelatih PSM, Stadion Sultan Agung</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4955,7 +4955,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tulus, Amin Leiman, Agile Done Well, Lantas</t>
+          <t>Lantas, Agile Done Well, Tulus, Amin Leiman</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -5102,7 +5102,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M Arfan Cs, Tim Juku Eja, Gol Madura United, Suporter PSM, PSM, Tony Ho, Akbar, Everton Nascimento, Dzaky, Gue PSM Rio Verieza, Yance Sayuri, Madura United, Rio, Timnas Indonesia</t>
+          <t>PSM, Gue PSM Rio Verieza, Everton Nascimento, Akbar, Tim Juku Eja, Rio, Yance Sayuri, Timnas Indonesia, Tony Ho, Gol Madura United, Suporter PSM, M Arfan Cs, Dzaky, Madura United</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5227,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tim Juku Eja, Persikabo Dicky Indrayana, Gustavo, Persikabo, Didik Wahyu Wijayance, Lucky Octavianto, PSM, Akbar, M Arfan, Ricky Pratama, Sundulan Yuran, Victor Dethan, Everton Nascimento, Yuran Fernandes, Kenzo Nambu, Gilang Ginarsa, Dybal, Gustavo Henrique</t>
+          <t>PSM, Persikabo Dicky Indrayana, Dybal, M Arfan, Everton Nascimento, Persikabo, Sundulan Yuran, Akbar, Tim Juku Eja, Lucky Octavianto, Yuran Fernandes, Gustavo Henrique, Kenzo Nambu, Ricky Pratama, Didik Wahyu Wijayance, Gilang Ginarsa, Gustavo, Victor Dethan</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5370,7 +5370,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Youbel Sondakh, Indonesia Cup, Kendati, Pelita, Satria Muda</t>
+          <t>Youbel Sondakh, Indonesia Cup, Kendati, Satria Muda, Pelita</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5491,7 +5491,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portugal, Ronaldo, Ruben Neves, Kwon, Al Rayyan, Joao Cancelo, Kim, WIB, Pepe, Cancelo, Vitinha, Korea, Cristiano Ronaldo, Dalot, Lee, Diogo Dalot, Ricardo Horta, Antonio Silva, Horta</t>
+          <t>Ricardo Horta, Kim, Portugal, Al Rayyan, WIB, Lee, Pepe, Cancelo, Ronaldo, Dalot, Kwon, Ruben Neves, Vitinha, Joao Cancelo, Horta, Korea, Diogo Dalot, Antonio Silva, Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5617,7 +5617,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Abulelah Al Amri, Lewandowski, Glik, Piotr Zielinski, Mohammed Al Burayk, Mohammed Al Owais, Saleh Al Shehri, Abulelah Al Malki, Salim Al Dawsari, Sami Al Naji, Ali Al Bulayhi, Polandia, Zielinski, Wojciech Szczesny, Kiwior, WIB, Kanno, Mohammed Kanno, Arab Saudi, Laga Polandia, Szczesny, Cash, Al Shehri, Krychowiak, Berezynski, Al Dawsari, Krystian Bielik, Bielik, Frankowski, Saud Abdulhamid, Kiper Polandia Wojciech Szczesny</t>
+          <t>Bielik, Krychowiak, Krystian Bielik, Mohammed Al Owais, Frankowski, Mohammed Al Burayk, Al Dawsari, Lewandowski, WIB, Glik, Wojciech Szczesny, Cash, Zielinski, Polandia, Berezynski, Ali Al Bulayhi, Kanno, Saleh Al Shehri, Kiwior, Kiper Polandia Wojciech Szczesny, Abulelah Al Malki, Arab Saudi, Saud Abdulhamid, Mohammed Kanno, Al Shehri, Laga Polandia, Piotr Zielinski, Sami Al Naji, Szczesny, Salim Al Dawsari, Abulelah Al Amri</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5748,7 +5748,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mitrovic, Nemanja Maksimovic, Serbia, Andrija Zivkovic, Kamerun Vs Serbia, Laga Kamerun Vs Serbia, Sergej, Eric Maxim, Kunde, Nicolas Nkoulou, Aleksandar Mitrovic, Kamerun, Sepakannya, Qatar, Nouhou Tolo, Sasa Lukic, Vincent Aboubakar, Devis Epassy, Al Wakrah, Castelletto, Laga, Tembakan Pierre Kunde, Eric, Vanja, Zivkovic, Tadic, The Eagles, Les Lions</t>
+          <t>Sergej, Andrija Zivkovic, Kamerun, Qatar, Zivkovic, Nouhou Tolo, Kunde, Tadic, Castelletto, Kamerun Vs Serbia, Sepakannya, Les Lions, Vanja, Sasa Lukic, Al Wakrah, Nicolas Nkoulou, Mitrovic, Vincent Aboubakar, Nemanja Maksimovic, Laga, Tembakan Pierre Kunde, Laga Kamerun Vs Serbia, Serbia, Eric Maxim, Aleksandar Mitrovic, Devis Epassy, Eric, The Eagles</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5919,7 +5919,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazil, Qatar, Timnas Brasil, Cafu, FIFA, Inggris, Salt, Ronaldo, Brasil</t>
+          <t>Timnas Brasil, Brazil, Ronaldo, Salt, FIFA, Cafu, Qatar, Inggris, Brasil</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>04/12/2022</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -6060,7 +6060,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Guardians, Persita, Duel PSM, PSM, Arema FC, Tragedi Kanjuruhan, Bhayangkara FC, Kickoff, Ramang, Tony Ho</t>
+          <t>PSM, The Guardians, Duel PSM, Ramang, Persita, Bhayangkara FC, Kickoff, Tony Ho, Arema FC, Tragedi Kanjuruhan</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6184,7 +6184,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Andi Arwin Azis, Alhamdulillah, Anies, Stadion Mattoanging, Stadion Mattoanging Gagal, Arwin, Internasional Stadium, Partai NasDem Anies Rasyid Baswedan, Pemprov, Gubernur DKI</t>
+          <t>Partai NasDem Anies Rasyid Baswedan, Arwin, Pemprov, Gubernur DKI, Stadion Mattoanging Gagal, Anies, Internasional Stadium, Alhamdulillah, Andi Arwin Azis, Stadion Mattoanging</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6329,7 +6329,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Goh Liu Ying, Nova Widianto, Indonesia, Rexy Mainaky, Malaysia, Lumpur, Negeri Jiran, Wun Tee, Kiara, Marcus, Malaysia Open, Rexy</t>
+          <t>Marcus, Malaysia, Lumpur, Goh Liu Ying, Indonesia, Wun Tee, Kiara, Negeri Jiran, Nova Widianto, Rexy Mainaky, Rexy, Malaysia Open</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6457,7 +6457,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Didik Wahyu Wijayance, Alhasil, Persikabo, Ryan Kurnia, Arsan Makarin, Ciro Alves, Alam, Teja, Ciro, Gilang Ginarsa, Diki Indriyana, Heru Cahyono, M Ali Koroy, Lucky Octavianto, Laskar Padjajaran, Silva, Syahrul Lasinari, Kakang Rudianto, Nick Kuipers, Tegar Infantrie, David, Henhen Herdiana, Abdul Aziz, Dedi Kusnandar, Andy Setyo Nugroho, Frets Butuan, Roni Sugeng, Solo, Beckham Putra, Persib, Daisuke Sato, Ali Koroy</t>
+          <t>Arsan Makarin, Syahrul Lasinari, Dedi Kusnandar, Kakang Rudianto, Laskar Padjajaran, Alam, Henhen Herdiana, Daisuke Sato, Didik Wahyu Wijayance, Persib, Beckham Putra, Ali Koroy, David, Gilang Ginarsa, Tegar Infantrie, Solo, Roni Sugeng, Andy Setyo Nugroho, Ciro Alves, Silva, Persikabo, Diki Indriyana, Lucky Octavianto, M Ali Koroy, Frets Butuan, Heru Cahyono, Ryan Kurnia, Nick Kuipers, Abdul Aziz, Teja, Alhasil, Ciro</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6598,7 +6598,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Institut Nasional Yerba Mate, Driussi, Major League Soccer, Sebastián Driussi, Argentina River Plate, Amerika, Argentina Alexis Mac Allister, Austin, The New York Tines, C, Szychowski, Qatar, Piala Dunia, Nicolás Novello, Uruguay, Timnas Argentina, Juan Jose Szychowski, Lionel Messi, Argentina, Brasil, Melansir The New York Times</t>
+          <t>Nicolás Novello, Brasil, Major League Soccer, Argentina Alexis Mac Allister, Juan Jose Szychowski, Amerika, The New York Tines, Melansir The New York Times, Austin, Uruguay, Piala Dunia, Lionel Messi, Timnas Argentina, Sebastián Driussi, Institut Nasional Yerba Mate, Driussi, Szychowski, C, Argentina River Plate, Qatar, Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -6733,7 +6733,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dekan Fakultas Ekonomi Unimus Dr Haerudin MT, Dr Hardiwinoto SE, Tanah Air, Inter Milan, Asian Games, Sammy, Erick Thohir, Presiden RI Joko Widodo, Erick, Oxford United, Abdullah Sammy, Eko Yuli Irawan, Eko Yuli, Philadelphia, BUMN</t>
+          <t>Erick Thohir, Dekan Fakultas Ekonomi Unimus Dr Haerudin MT, Presiden RI Joko Widodo, Abdullah Sammy, Philadelphia, Oxford United, Eko Yuli Irawan, Erick, Asian Games, Sammy, Dr Hardiwinoto SE, Inter Milan, Tanah Air, BUMN, Eko Yuli</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6865,7 +6865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ilja Dijkstra, Indonesia, Oranje, Ilja, KNVB WorldCoaches, Argentina, Oranje Indonesia Festival, Strategi Pemasaran Internasional KNVB Ilja Dijkstra, KNVB, Oranje Indonesia, Belanda, Timnas Belanda</t>
+          <t>Oranje Indonesia, KNVB WorldCoaches, Indonesia, Oranje, Timnas Belanda, KNVB, Oranje Indonesia Festival, Strategi Pemasaran Internasional KNVB Ilja Dijkstra, Ilja Dijkstra, Ilja, Argentina, Belanda</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6991,7 +6991,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Menteri Erick Thohir, Menteri BUMN Erick Thohir, Wakil Gubernur, FC, Andre Rosiade, Indonesia, PSSI, Kanjuruhan, Erick Thohir, Erick, Claudio, PT, Sumatera, Umum PSSI, BUMN</t>
+          <t>Erick Thohir, FC, PSSI, Wakil Gubernur, Indonesia, Sumatera, Umum PSSI, Erick, Claudio, PT, Andre Rosiade, Menteri Erick Thohir, Kanjuruhan, BUMN, Menteri BUMN Erick Thohir</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -7118,7 +7118,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Newcastle, Liga Inggris, Danny Ward, Leicester City, Boxing Day, Joelinton, Ward, Guimaraes, Almiron, Wout Faes, Leicester, WIB, Miguel Almiron, Nick Pope, Harvey Barnes, Newcastle United, Daniel Amartey, The Magpies, Sven Botman, Kieran Trippier, Fabian Schar, Kiernan, Manchester City</t>
+          <t>Almiron, WIB, The Magpies, Manchester City, Ward, Kiernan, Newcastle United, Daniel Amartey, Danny Ward, Fabian Schar, Newcastle, Miguel Almiron, Sven Botman, Harvey Barnes, Boxing Day, Guimaraes, Nick Pope, Leicester City, Leicester, Joelinton, Kieran Trippier, Wout Faes, Liga Inggris</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -7252,7 +7252,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ramadhan Sananta, Pelatih Timnas Indonesia Shin, AFC Pro, Garuda Muda, Juku Eja, PSM, Spanyol, Bernardo Tavares, Ananda Raehan, Dzaky, Dzaky Asraf, Ramang, Timnas, Tony Ho, Timnas Indonesia, Sananta, Winger Yakob Sayuri</t>
+          <t>PSM, Juku Eja, Ramang, Bernardo Tavares, Ananda Raehan, Timnas, Dzaky Asraf, Spanyol, AFC Pro, Timnas Indonesia, Tony Ho, Winger Yakob Sayuri, Ramadhan Sananta, Garuda Muda, Pelatih Timnas Indonesia Shin, Sananta, Dzaky</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -7389,7 +7389,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rian, Menarik, Indonesia Open</t>
+          <t>Menarik, Rian, Indonesia Open</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>19/12/2022</t>
         </is>
       </c>
       <c r="H50" t="n">
